--- a/InternalComponentListing.xlsx
+++ b/InternalComponentListing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">CID</t>
   </si>
@@ -131,6 +131,24 @@
   </si>
   <si>
     <t xml:space="preserve">256-Bit register. Makes use of JC1REG164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC18REG64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 x 64 bit registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 x 64 bit addressable register group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC14REG256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x 256 bit registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x 256 bit addressable register group</t>
   </si>
 </sst>
 </file>
@@ -146,6 +164,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -173,6 +192,7 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -229,7 +249,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,10 +264,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -347,80 +363,79 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ12"/>
+  <dimension ref="A1:AMJ14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="33.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="58.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.21"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>45236</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>45236</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="0" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>45236</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -429,7 +444,7 @@
       <c r="C5" s="3" t="n">
         <v>45236</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -443,7 +458,7 @@
       <c r="C6" s="3" t="n">
         <v>45236</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="0" t="s">
         <v>18</v>
       </c>
     </row>
@@ -457,7 +472,7 @@
       <c r="C7" s="3" t="n">
         <v>45236</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -471,7 +486,7 @@
       <c r="C8" s="3" t="n">
         <v>45236</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="0" t="s">
         <v>24</v>
       </c>
     </row>
@@ -485,7 +500,7 @@
       <c r="C9" s="3" t="n">
         <v>45236</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -499,7 +514,7 @@
       <c r="C10" s="3" t="n">
         <v>45236</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -513,7 +528,7 @@
       <c r="C11" s="3" t="n">
         <v>45236</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -527,8 +542,36 @@
       <c r="C12" s="3" t="n">
         <v>45236</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="0" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>45238</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>45237</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/InternalComponentListing.xlsx
+++ b/InternalComponentListing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">CID</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t xml:space="preserve">4 x 256 bit addressable register group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC11BALU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Bit ALU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Bit ALU. OPS: ADD, SUB, INC, DEC, AND, OR, NOT, XOR</t>
   </si>
 </sst>
 </file>
@@ -363,10 +372,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ14"/>
+  <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -574,6 +583,20 @@
         <v>42</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>45238</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/InternalComponentListing.xlsx
+++ b/InternalComponentListing.xlsx
@@ -151,13 +151,13 @@
     <t xml:space="preserve">4 x 256 bit addressable register group</t>
   </si>
   <si>
-    <t xml:space="preserve">JC11BALU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Bit ALU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Bit ALU. OPS: ADD, SUB, INC, DEC, AND, OR, NOT, XOR</t>
+    <t xml:space="preserve">JC11BALUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Bit ALU Part A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Bit ALU. OPS: ADD, SUB, NOR, NAND, AND, OR, NOT, XOR</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/InternalComponentListing.xlsx
+++ b/InternalComponentListing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">CID</t>
   </si>
@@ -34,42 +34,6 @@
     <t xml:space="preserve">Purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">JC11BAOXN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Bit AND/OR/XOR/NOR ALU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perform 1-Bit bitwise operations via opcode signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JC18BAOXN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-Bit AND/OR/XOR/NOR ALU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perform 8-Bit bitwise operations via opcode signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JC1FFBAOXN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64-Bit AND/OR/XOR/NOR ALU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perform 64-Bit bitwise operations via opcode signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JC11BOTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Bit One time pad with internal generator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encrypt bitstream via internal RNG. Output keystream and ciphertext</t>
-  </si>
-  <si>
     <t xml:space="preserve">JC11BADD</t>
   </si>
   <si>
@@ -158,6 +122,15 @@
   </si>
   <si>
     <t xml:space="preserve">1-Bit ALU. OPS: ADD, SUB, NOR, NAND, AND, OR, NOT, XOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC164ALUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64-Bit ALU Part A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64-Bit ALU. OPS: ADD, SUB, NOR, NAND, AND, OR, NOT, XOR</t>
   </si>
 </sst>
 </file>
@@ -168,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -203,12 +176,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Ubuntu Mono"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -258,7 +225,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,18 +247,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,10 +327,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,11 +356,11 @@
       </c>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="n">
@@ -415,11 +370,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="n">
@@ -429,11 +384,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="n">
@@ -444,7 +399,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -507,7 +462,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>27</v>
@@ -521,7 +476,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>30</v>
@@ -535,7 +490,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>33</v>
@@ -549,52 +504,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>45238</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>45237</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>45238</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
